--- a/public/毕业设计文档/过程表.xlsx
+++ b/public/毕业设计文档/过程表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HtmlProject\yyweb_phone_express\public\毕业设计文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,262 @@
   </si>
   <si>
     <t>WEB应用过程计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MINORITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEND_FROM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEND_TO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMIT_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF_READ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,16 +380,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -429,201 +685,572 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="2">
         <v>43081</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="2">
         <v>43101</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="2">
         <v>43105</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>50</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="25">
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="C20:D21"/>
     <mergeCell ref="E20:F21"/>
     <mergeCell ref="A20:B21"/>
